--- a/published-data/fonds-solidarite/fds-2020-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -711,10 +711,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>276819</v>
+        <v>277715</v>
       </c>
       <c r="D2">
-        <v>353962708</v>
+        <v>355121162</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -867,10 +867,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="D8">
-        <v>1127894</v>
+        <v>1135394</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -919,10 +919,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>105567</v>
+        <v>105988</v>
       </c>
       <c r="D10">
-        <v>154969929</v>
+        <v>155584022</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -971,10 +971,10 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>51968</v>
+        <v>52214</v>
       </c>
       <c r="D12">
-        <v>75122450</v>
+        <v>75473447</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1075,10 +1075,10 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>3406</v>
+        <v>3429</v>
       </c>
       <c r="D16">
-        <v>4841315</v>
+        <v>4874603</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1179,10 +1179,10 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>4863</v>
+        <v>4908</v>
       </c>
       <c r="D20">
-        <v>6812479</v>
+        <v>6874088</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1231,10 +1231,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>68666</v>
+        <v>68858</v>
       </c>
       <c r="D22">
-        <v>86244128</v>
+        <v>86478690</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1335,10 +1335,10 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -1361,10 +1361,10 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D27">
-        <v>367718</v>
+        <v>370718</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1387,10 +1387,10 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>29534</v>
+        <v>29640</v>
       </c>
       <c r="D28">
-        <v>43297234</v>
+        <v>43449773</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -1439,10 +1439,10 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>10138</v>
+        <v>10179</v>
       </c>
       <c r="D30">
-        <v>14628620</v>
+        <v>14687443</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1517,10 +1517,10 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>1340</v>
+        <v>1351</v>
       </c>
       <c r="D33">
-        <v>1884586</v>
+        <v>1900715</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>1388</v>
+        <v>1404</v>
       </c>
       <c r="D35">
-        <v>1955703</v>
+        <v>1979703</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1595,10 +1595,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>86944</v>
+        <v>87144</v>
       </c>
       <c r="D36">
-        <v>110249062</v>
+        <v>110495459</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -1621,10 +1621,10 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>64493</v>
+        <v>65593</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -1647,10 +1647,10 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D38">
-        <v>102653</v>
+        <v>104153</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -1751,10 +1751,10 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="D42">
-        <v>1174158</v>
+        <v>1183958</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -1777,10 +1777,10 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -1803,10 +1803,10 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>40664</v>
+        <v>40775</v>
       </c>
       <c r="D44">
-        <v>59717937</v>
+        <v>59878093</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -1855,10 +1855,10 @@
         <v>9</v>
       </c>
       <c r="C46">
-        <v>8125</v>
+        <v>8155</v>
       </c>
       <c r="D46">
-        <v>11668027</v>
+        <v>11713027</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -1907,10 +1907,10 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="D48">
-        <v>1644017</v>
+        <v>1647017</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -1985,10 +1985,10 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>1708</v>
+        <v>1729</v>
       </c>
       <c r="D51">
-        <v>2380883</v>
+        <v>2411827</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -2011,10 +2011,10 @@
         <v>9</v>
       </c>
       <c r="C52">
-        <v>60395</v>
+        <v>60536</v>
       </c>
       <c r="D52">
-        <v>76049596</v>
+        <v>76225032</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
@@ -2115,10 +2115,10 @@
         <v>9</v>
       </c>
       <c r="C56">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D56">
-        <v>497909</v>
+        <v>500909</v>
       </c>
       <c r="E56" t="s">
         <v>13</v>
@@ -2167,10 +2167,10 @@
         <v>9</v>
       </c>
       <c r="C58">
-        <v>25563</v>
+        <v>25644</v>
       </c>
       <c r="D58">
-        <v>37535790</v>
+        <v>37651295</v>
       </c>
       <c r="E58" t="s">
         <v>13</v>
@@ -2245,10 +2245,10 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>9798</v>
+        <v>9837</v>
       </c>
       <c r="D61">
-        <v>14188915</v>
+        <v>14243937</v>
       </c>
       <c r="E61" t="s">
         <v>13</v>
@@ -2271,10 +2271,10 @@
         <v>9</v>
       </c>
       <c r="C62">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="D62">
-        <v>1672219</v>
+        <v>1674607</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
@@ -2349,10 +2349,10 @@
         <v>9</v>
       </c>
       <c r="C65">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="D65">
-        <v>1556609</v>
+        <v>1566576</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
@@ -2401,10 +2401,10 @@
         <v>9</v>
       </c>
       <c r="C67">
-        <v>17693</v>
+        <v>17776</v>
       </c>
       <c r="D67">
-        <v>23163968</v>
+        <v>23270436</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -2505,10 +2505,10 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <v>6441</v>
+        <v>6465</v>
       </c>
       <c r="D71">
-        <v>9425651</v>
+        <v>9459992</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
@@ -2531,10 +2531,10 @@
         <v>9</v>
       </c>
       <c r="C72">
-        <v>4389</v>
+        <v>4407</v>
       </c>
       <c r="D72">
-        <v>6379811</v>
+        <v>6405710</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -2557,10 +2557,10 @@
         <v>9</v>
       </c>
       <c r="C73">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D73">
-        <v>567258</v>
+        <v>568758</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
@@ -2583,10 +2583,10 @@
         <v>9</v>
       </c>
       <c r="C74">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D74">
-        <v>299056</v>
+        <v>308056</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -2609,10 +2609,10 @@
         <v>9</v>
       </c>
       <c r="C75">
-        <v>123524</v>
+        <v>123920</v>
       </c>
       <c r="D75">
-        <v>154680612</v>
+        <v>155152951</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -2687,10 +2687,10 @@
         <v>9</v>
       </c>
       <c r="C78">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D78">
-        <v>25500</v>
+        <v>27000</v>
       </c>
       <c r="E78" t="s">
         <v>15</v>
@@ -2713,10 +2713,10 @@
         <v>9</v>
       </c>
       <c r="C79">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D79">
-        <v>533282</v>
+        <v>534782</v>
       </c>
       <c r="E79" t="s">
         <v>15</v>
@@ -2765,10 +2765,10 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>57431</v>
+        <v>57653</v>
       </c>
       <c r="D81">
-        <v>84325364</v>
+        <v>84645609</v>
       </c>
       <c r="E81" t="s">
         <v>15</v>
@@ -2791,10 +2791,10 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D82">
-        <v>99082</v>
+        <v>102082</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -2843,10 +2843,10 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>26286</v>
+        <v>26414</v>
       </c>
       <c r="D84">
-        <v>38063058</v>
+        <v>38250161</v>
       </c>
       <c r="E84" t="s">
         <v>15</v>
@@ -2895,10 +2895,10 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>2292</v>
+        <v>2305</v>
       </c>
       <c r="D86">
-        <v>3304938</v>
+        <v>3324328</v>
       </c>
       <c r="E86" t="s">
         <v>15</v>
@@ -2921,10 +2921,10 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>2072</v>
+        <v>2100</v>
       </c>
       <c r="D87">
-        <v>2918175</v>
+        <v>2956207</v>
       </c>
       <c r="E87" t="s">
         <v>15</v>
@@ -2947,10 +2947,10 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>23612</v>
+        <v>23784</v>
       </c>
       <c r="D88">
-        <v>32069750</v>
+        <v>32297817</v>
       </c>
       <c r="E88" t="s">
         <v>16</v>
@@ -3051,10 +3051,10 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>6328</v>
+        <v>6356</v>
       </c>
       <c r="D92">
-        <v>9329839</v>
+        <v>9368176</v>
       </c>
       <c r="E92" t="s">
         <v>16</v>
@@ -3103,10 +3103,10 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>5483</v>
+        <v>5523</v>
       </c>
       <c r="D94">
-        <v>7947196</v>
+        <v>8006034</v>
       </c>
       <c r="E94" t="s">
         <v>16</v>
@@ -3155,10 +3155,10 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D96">
-        <v>542159</v>
+        <v>545809</v>
       </c>
       <c r="E96" t="s">
         <v>16</v>
@@ -3181,10 +3181,10 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D97">
-        <v>461161</v>
+        <v>464161</v>
       </c>
       <c r="E97" t="s">
         <v>16</v>
@@ -3207,10 +3207,10 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>5345</v>
+        <v>5394</v>
       </c>
       <c r="D98">
-        <v>7403181</v>
+        <v>7473286</v>
       </c>
       <c r="E98" t="s">
         <v>17</v>
@@ -3259,10 +3259,10 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>1358</v>
+        <v>1368</v>
       </c>
       <c r="D100">
-        <v>1999062</v>
+        <v>2014062</v>
       </c>
       <c r="E100" t="s">
         <v>17</v>
@@ -3311,10 +3311,10 @@
         <v>9</v>
       </c>
       <c r="C102">
-        <v>1859</v>
+        <v>1871</v>
       </c>
       <c r="D102">
-        <v>2712626</v>
+        <v>2730601</v>
       </c>
       <c r="E102" t="s">
         <v>17</v>
@@ -3363,10 +3363,10 @@
         <v>9</v>
       </c>
       <c r="C104">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D104">
-        <v>91520</v>
+        <v>93020</v>
       </c>
       <c r="E104" t="s">
         <v>17</v>
@@ -3389,10 +3389,10 @@
         <v>9</v>
       </c>
       <c r="C105">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D105">
-        <v>128412</v>
+        <v>133789</v>
       </c>
       <c r="E105" t="s">
         <v>17</v>
@@ -3415,10 +3415,10 @@
         <v>9</v>
       </c>
       <c r="C106">
-        <v>124874</v>
+        <v>125128</v>
       </c>
       <c r="D106">
-        <v>154846524</v>
+        <v>155153237</v>
       </c>
       <c r="E106" t="s">
         <v>18</v>
@@ -3519,10 +3519,10 @@
         <v>9</v>
       </c>
       <c r="C110">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="D110">
-        <v>1260132</v>
+        <v>1270632</v>
       </c>
       <c r="E110" t="s">
         <v>18</v>
@@ -3571,10 +3571,10 @@
         <v>9</v>
       </c>
       <c r="C112">
-        <v>48113</v>
+        <v>48250</v>
       </c>
       <c r="D112">
-        <v>70622941</v>
+        <v>70826657</v>
       </c>
       <c r="E112" t="s">
         <v>18</v>
@@ -3597,10 +3597,10 @@
         <v>9</v>
       </c>
       <c r="C113">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D113">
-        <v>116159</v>
+        <v>117659</v>
       </c>
       <c r="E113" t="s">
         <v>18</v>
@@ -3623,10 +3623,10 @@
         <v>9</v>
       </c>
       <c r="C114">
-        <v>23739</v>
+        <v>23819</v>
       </c>
       <c r="D114">
-        <v>34420806</v>
+        <v>34533935</v>
       </c>
       <c r="E114" t="s">
         <v>18</v>
@@ -3649,10 +3649,10 @@
         <v>9</v>
       </c>
       <c r="C115">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="D115">
-        <v>1494420</v>
+        <v>1502832</v>
       </c>
       <c r="E115" t="s">
         <v>18</v>
@@ -3727,10 +3727,10 @@
         <v>9</v>
       </c>
       <c r="C118">
-        <v>1696</v>
+        <v>1709</v>
       </c>
       <c r="D118">
-        <v>2385850</v>
+        <v>2404872</v>
       </c>
       <c r="E118" t="s">
         <v>18</v>
@@ -3779,10 +3779,10 @@
         <v>9</v>
       </c>
       <c r="C120">
-        <v>37300</v>
+        <v>37421</v>
       </c>
       <c r="D120">
-        <v>50054497</v>
+        <v>50207259</v>
       </c>
       <c r="E120" t="s">
         <v>19</v>
@@ -3805,10 +3805,10 @@
         <v>9</v>
       </c>
       <c r="C121">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D121">
-        <v>31153</v>
+        <v>32653</v>
       </c>
       <c r="E121" t="s">
         <v>19</v>
@@ -3935,10 +3935,10 @@
         <v>9</v>
       </c>
       <c r="C126">
-        <v>12397</v>
+        <v>12429</v>
       </c>
       <c r="D126">
-        <v>18225420</v>
+        <v>18273127</v>
       </c>
       <c r="E126" t="s">
         <v>19</v>
@@ -3961,10 +3961,10 @@
         <v>9</v>
       </c>
       <c r="C127">
-        <v>3239</v>
+        <v>3247</v>
       </c>
       <c r="D127">
-        <v>4677466</v>
+        <v>4688941</v>
       </c>
       <c r="E127" t="s">
         <v>19</v>
@@ -4039,10 +4039,10 @@
         <v>9</v>
       </c>
       <c r="C130">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D130">
-        <v>470536</v>
+        <v>472036</v>
       </c>
       <c r="E130" t="s">
         <v>19</v>
@@ -4091,10 +4091,10 @@
         <v>9</v>
       </c>
       <c r="C132">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D132">
-        <v>408690</v>
+        <v>413190</v>
       </c>
       <c r="E132" t="s">
         <v>19</v>
@@ -4117,10 +4117,10 @@
         <v>9</v>
       </c>
       <c r="C133">
-        <v>14080</v>
+        <v>14150</v>
       </c>
       <c r="D133">
-        <v>18686782</v>
+        <v>18777683</v>
       </c>
       <c r="E133" t="s">
         <v>20</v>
@@ -4221,10 +4221,10 @@
         <v>9</v>
       </c>
       <c r="C137">
-        <v>6039</v>
+        <v>6071</v>
       </c>
       <c r="D137">
-        <v>8800752</v>
+        <v>8848752</v>
       </c>
       <c r="E137" t="s">
         <v>20</v>
@@ -4273,10 +4273,10 @@
         <v>9</v>
       </c>
       <c r="C139">
-        <v>3999</v>
+        <v>4020</v>
       </c>
       <c r="D139">
-        <v>5772169</v>
+        <v>5799615</v>
       </c>
       <c r="E139" t="s">
         <v>20</v>
@@ -4325,10 +4325,10 @@
         <v>9</v>
       </c>
       <c r="C141">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D141">
-        <v>287933</v>
+        <v>289433</v>
       </c>
       <c r="E141" t="s">
         <v>20</v>
@@ -4351,10 +4351,10 @@
         <v>9</v>
       </c>
       <c r="C142">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D142">
-        <v>243164</v>
+        <v>250664</v>
       </c>
       <c r="E142" t="s">
         <v>20</v>
@@ -4403,10 +4403,10 @@
         <v>9</v>
       </c>
       <c r="C144">
-        <v>8745</v>
+        <v>8872</v>
       </c>
       <c r="D144">
-        <v>12619681</v>
+        <v>12805026</v>
       </c>
       <c r="E144" t="s">
         <v>21</v>
@@ -4429,10 +4429,10 @@
         <v>9</v>
       </c>
       <c r="C145">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="D145">
-        <v>1940578</v>
+        <v>1945078</v>
       </c>
       <c r="E145" t="s">
         <v>21</v>
@@ -4455,10 +4455,10 @@
         <v>9</v>
       </c>
       <c r="C146">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D146">
-        <v>261171</v>
+        <v>265671</v>
       </c>
       <c r="E146" t="s">
         <v>21</v>
@@ -4481,10 +4481,10 @@
         <v>9</v>
       </c>
       <c r="C147">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D147">
-        <v>37190</v>
+        <v>38690</v>
       </c>
       <c r="E147" t="s">
         <v>21</v>
@@ -4533,10 +4533,10 @@
         <v>9</v>
       </c>
       <c r="C149">
-        <v>77416</v>
+        <v>77620</v>
       </c>
       <c r="D149">
-        <v>97268604</v>
+        <v>97513434</v>
       </c>
       <c r="E149" t="s">
         <v>22</v>
@@ -4663,10 +4663,10 @@
         <v>9</v>
       </c>
       <c r="C154">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D154">
-        <v>865537</v>
+        <v>870037</v>
       </c>
       <c r="E154" t="s">
         <v>22</v>
@@ -4715,10 +4715,10 @@
         <v>9</v>
       </c>
       <c r="C156">
-        <v>30951</v>
+        <v>31064</v>
       </c>
       <c r="D156">
-        <v>45444614</v>
+        <v>45606600</v>
       </c>
       <c r="E156" t="s">
         <v>22</v>
@@ -4767,10 +4767,10 @@
         <v>9</v>
       </c>
       <c r="C158">
-        <v>11458</v>
+        <v>11501</v>
       </c>
       <c r="D158">
-        <v>16573763</v>
+        <v>16637592</v>
       </c>
       <c r="E158" t="s">
         <v>22</v>
@@ -4819,10 +4819,10 @@
         <v>9</v>
       </c>
       <c r="C160">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D160">
-        <v>1480896</v>
+        <v>1482396</v>
       </c>
       <c r="E160" t="s">
         <v>22</v>
@@ -4871,10 +4871,10 @@
         <v>9</v>
       </c>
       <c r="C162">
-        <v>1248</v>
+        <v>1253</v>
       </c>
       <c r="D162">
-        <v>1766726</v>
+        <v>1774226</v>
       </c>
       <c r="E162" t="s">
         <v>22</v>
@@ -4923,10 +4923,10 @@
         <v>9</v>
       </c>
       <c r="C164">
-        <v>209512</v>
+        <v>209991</v>
       </c>
       <c r="D164">
-        <v>261354864</v>
+        <v>261928662</v>
       </c>
       <c r="E164" t="s">
         <v>23</v>
@@ -4975,10 +4975,10 @@
         <v>9</v>
       </c>
       <c r="C166">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D166">
-        <v>216953</v>
+        <v>218453</v>
       </c>
       <c r="E166" t="s">
         <v>23</v>
@@ -5079,10 +5079,10 @@
         <v>9</v>
       </c>
       <c r="C170">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D170">
-        <v>1157290</v>
+        <v>1158790</v>
       </c>
       <c r="E170" t="s">
         <v>23</v>
@@ -5131,10 +5131,10 @@
         <v>9</v>
       </c>
       <c r="C172">
-        <v>78971</v>
+        <v>79169</v>
       </c>
       <c r="D172">
-        <v>115874839</v>
+        <v>116157136</v>
       </c>
       <c r="E172" t="s">
         <v>23</v>
@@ -5209,10 +5209,10 @@
         <v>9</v>
       </c>
       <c r="C175">
-        <v>29276</v>
+        <v>29377</v>
       </c>
       <c r="D175">
-        <v>42174908</v>
+        <v>42316015</v>
       </c>
       <c r="E175" t="s">
         <v>23</v>
@@ -5287,10 +5287,10 @@
         <v>9</v>
       </c>
       <c r="C178">
-        <v>4399</v>
+        <v>4418</v>
       </c>
       <c r="D178">
-        <v>6281886</v>
+        <v>6310386</v>
       </c>
       <c r="E178" t="s">
         <v>23</v>
@@ -5365,10 +5365,10 @@
         <v>9</v>
       </c>
       <c r="C181">
-        <v>3694</v>
+        <v>3722</v>
       </c>
       <c r="D181">
-        <v>5138237</v>
+        <v>5178659</v>
       </c>
       <c r="E181" t="s">
         <v>23</v>
@@ -5443,10 +5443,10 @@
         <v>9</v>
       </c>
       <c r="C184">
-        <v>228302</v>
+        <v>229021</v>
       </c>
       <c r="D184">
-        <v>283315736</v>
+        <v>284180113</v>
       </c>
       <c r="E184" t="s">
         <v>24</v>
@@ -5469,10 +5469,10 @@
         <v>9</v>
       </c>
       <c r="C185">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D185">
-        <v>148352</v>
+        <v>151352</v>
       </c>
       <c r="E185" t="s">
         <v>24</v>
@@ -5495,10 +5495,10 @@
         <v>9</v>
       </c>
       <c r="C186">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D186">
-        <v>310411</v>
+        <v>311911</v>
       </c>
       <c r="E186" t="s">
         <v>24</v>
@@ -5599,10 +5599,10 @@
         <v>9</v>
       </c>
       <c r="C190">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D190">
-        <v>804627</v>
+        <v>809382</v>
       </c>
       <c r="E190" t="s">
         <v>24</v>
@@ -5651,10 +5651,10 @@
         <v>9</v>
       </c>
       <c r="C192">
-        <v>85561</v>
+        <v>85888</v>
       </c>
       <c r="D192">
-        <v>125321137</v>
+        <v>125786042</v>
       </c>
       <c r="E192" t="s">
         <v>24</v>
@@ -5729,10 +5729,10 @@
         <v>9</v>
       </c>
       <c r="C195">
-        <v>45116</v>
+        <v>45307</v>
       </c>
       <c r="D195">
-        <v>65300593</v>
+        <v>65569267</v>
       </c>
       <c r="E195" t="s">
         <v>24</v>
@@ -5807,10 +5807,10 @@
         <v>9</v>
       </c>
       <c r="C198">
-        <v>3997</v>
+        <v>4019</v>
       </c>
       <c r="D198">
-        <v>5622948</v>
+        <v>5654667</v>
       </c>
       <c r="E198" t="s">
         <v>24</v>
@@ -5885,10 +5885,10 @@
         <v>9</v>
       </c>
       <c r="C201">
-        <v>4282</v>
+        <v>4320</v>
       </c>
       <c r="D201">
-        <v>5931648</v>
+        <v>5981557</v>
       </c>
       <c r="E201" t="s">
         <v>24</v>
@@ -5963,10 +5963,10 @@
         <v>9</v>
       </c>
       <c r="C204">
-        <v>93852</v>
+        <v>94085</v>
       </c>
       <c r="D204">
-        <v>118138010</v>
+        <v>118431412</v>
       </c>
       <c r="E204" t="s">
         <v>25</v>
@@ -5989,10 +5989,10 @@
         <v>9</v>
       </c>
       <c r="C205">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D205">
-        <v>67042</v>
+        <v>70104</v>
       </c>
       <c r="E205" t="s">
         <v>25</v>
@@ -6093,10 +6093,10 @@
         <v>9</v>
       </c>
       <c r="C209">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D209">
-        <v>737912</v>
+        <v>742412</v>
       </c>
       <c r="E209" t="s">
         <v>25</v>
@@ -6145,10 +6145,10 @@
         <v>9</v>
       </c>
       <c r="C211">
-        <v>45351</v>
+        <v>45479</v>
       </c>
       <c r="D211">
-        <v>66511046</v>
+        <v>66697294</v>
       </c>
       <c r="E211" t="s">
         <v>25</v>
@@ -6197,10 +6197,10 @@
         <v>9</v>
       </c>
       <c r="C213">
-        <v>10900</v>
+        <v>10945</v>
       </c>
       <c r="D213">
-        <v>15687311</v>
+        <v>15750706</v>
       </c>
       <c r="E213" t="s">
         <v>25</v>
@@ -6249,10 +6249,10 @@
         <v>9</v>
       </c>
       <c r="C215">
-        <v>1678</v>
+        <v>1687</v>
       </c>
       <c r="D215">
-        <v>2404945</v>
+        <v>2417347</v>
       </c>
       <c r="E215" t="s">
         <v>25</v>
@@ -6275,10 +6275,10 @@
         <v>9</v>
       </c>
       <c r="C216">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D216">
-        <v>8596</v>
+        <v>10096</v>
       </c>
       <c r="E216" t="s">
         <v>25</v>
@@ -6301,10 +6301,10 @@
         <v>9</v>
       </c>
       <c r="C217">
-        <v>1929</v>
+        <v>1948</v>
       </c>
       <c r="D217">
-        <v>2692450</v>
+        <v>2719580</v>
       </c>
       <c r="E217" t="s">
         <v>25</v>
@@ -6327,10 +6327,10 @@
         <v>9</v>
       </c>
       <c r="C218">
-        <v>224591</v>
+        <v>225212</v>
       </c>
       <c r="D218">
-        <v>284284291</v>
+        <v>285059174</v>
       </c>
       <c r="E218" t="s">
         <v>26</v>
@@ -6353,10 +6353,10 @@
         <v>9</v>
       </c>
       <c r="C219">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D219">
-        <v>183856</v>
+        <v>185356</v>
       </c>
       <c r="E219" t="s">
         <v>26</v>
@@ -6379,10 +6379,10 @@
         <v>9</v>
       </c>
       <c r="C220">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D220">
-        <v>323332</v>
+        <v>324832</v>
       </c>
       <c r="E220" t="s">
         <v>26</v>
@@ -6483,10 +6483,10 @@
         <v>9</v>
       </c>
       <c r="C224">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="D224">
-        <v>1074810</v>
+        <v>1080810</v>
       </c>
       <c r="E224" t="s">
         <v>26</v>
@@ -6535,10 +6535,10 @@
         <v>9</v>
       </c>
       <c r="C226">
-        <v>86153</v>
+        <v>86433</v>
       </c>
       <c r="D226">
-        <v>126404267</v>
+        <v>126808751</v>
       </c>
       <c r="E226" t="s">
         <v>26</v>
@@ -6613,10 +6613,10 @@
         <v>9</v>
       </c>
       <c r="C229">
-        <v>56916</v>
+        <v>57138</v>
       </c>
       <c r="D229">
-        <v>82597270</v>
+        <v>82914285</v>
       </c>
       <c r="E229" t="s">
         <v>26</v>
@@ -6665,10 +6665,10 @@
         <v>9</v>
       </c>
       <c r="C231">
-        <v>2072</v>
+        <v>2082</v>
       </c>
       <c r="D231">
-        <v>2927670</v>
+        <v>2942645</v>
       </c>
       <c r="E231" t="s">
         <v>26</v>
@@ -6743,10 +6743,10 @@
         <v>9</v>
       </c>
       <c r="C234">
-        <v>3524</v>
+        <v>3542</v>
       </c>
       <c r="D234">
-        <v>4949026</v>
+        <v>4972531</v>
       </c>
       <c r="E234" t="s">
         <v>26</v>
@@ -6769,10 +6769,10 @@
         <v>9</v>
       </c>
       <c r="C235">
-        <v>386084</v>
+        <v>387829</v>
       </c>
       <c r="D235">
-        <v>507180829</v>
+        <v>509494954</v>
       </c>
       <c r="E235" t="s">
         <v>27</v>
@@ -6795,10 +6795,10 @@
         <v>9</v>
       </c>
       <c r="C236">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D236">
-        <v>89497</v>
+        <v>90997</v>
       </c>
       <c r="E236" t="s">
         <v>27</v>
@@ -6899,10 +6899,10 @@
         <v>9</v>
       </c>
       <c r="C240">
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="D240">
-        <v>1702051</v>
+        <v>1709551</v>
       </c>
       <c r="E240" t="s">
         <v>27</v>
@@ -6951,10 +6951,10 @@
         <v>9</v>
       </c>
       <c r="C242">
-        <v>178530</v>
+        <v>179221</v>
       </c>
       <c r="D242">
-        <v>262867411</v>
+        <v>263875195</v>
       </c>
       <c r="E242" t="s">
         <v>27</v>
@@ -6977,10 +6977,10 @@
         <v>9</v>
       </c>
       <c r="C243">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D243">
-        <v>470790</v>
+        <v>473790</v>
       </c>
       <c r="E243" t="s">
         <v>27</v>
@@ -7029,10 +7029,10 @@
         <v>9</v>
       </c>
       <c r="C245">
-        <v>148988</v>
+        <v>149596</v>
       </c>
       <c r="D245">
-        <v>216735606</v>
+        <v>217607407</v>
       </c>
       <c r="E245" t="s">
         <v>27</v>
@@ -7081,10 +7081,10 @@
         <v>9</v>
       </c>
       <c r="C247">
-        <v>2214</v>
+        <v>2239</v>
       </c>
       <c r="D247">
-        <v>3109699</v>
+        <v>3141648</v>
       </c>
       <c r="E247" t="s">
         <v>27</v>
@@ -7133,10 +7133,10 @@
         <v>9</v>
       </c>
       <c r="C249">
-        <v>4552</v>
+        <v>4586</v>
       </c>
       <c r="D249">
-        <v>6422629</v>
+        <v>6471254</v>
       </c>
       <c r="E249" t="s">
         <v>27</v>
